--- a/ISPP_Lab3/lab3数据 - 副本.xlsx
+++ b/ISPP_Lab3/lab3数据 - 副本.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\eclipseWorkspace\ISP_LAB3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\ISPP\ISPP_Lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="429">
   <si>
     <t>新城旭辉府</t>
   </si>
@@ -1311,10 +1311,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>松江区泗通路泗宝路</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1347,7 +1343,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>户型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学区房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>价格（元/m2）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1732,8 +1745,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D21" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1741,8 +1754,8 @@
     <col min="1" max="1" width="9.25" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9" style="4"/>
     <col min="4" max="4" width="14.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="20.875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="6.75" style="4" customWidth="1"/>
     <col min="7" max="8" width="8.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="9.25" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1"/>
@@ -1768,10 +1781,10 @@
         <v>9</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>415</v>
+        <v>10</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>8</v>
+        <v>424</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>8</v>
@@ -1780,7 +1793,7 @@
         <v>8</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>7</v>
+        <v>425</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>7</v>
@@ -1818,7 +1831,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>119</v>
@@ -1834,7 +1847,7 @@
         <v>77</v>
       </c>
       <c r="J2" s="1">
-        <f>VLOOKUP(I2,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I2,{0,1;90,2;125,3;200,4},2)</f>
         <v>1</v>
       </c>
       <c r="K2" s="4" t="s">
@@ -1853,8 +1866,8 @@
         <v>23000</v>
       </c>
       <c r="P2" s="1">
-        <f>VLOOKUP(O2,{0,1;13000,2;25000,3;60000,4},2)</f>
-        <v>2</v>
+        <f>VLOOKUP(O2,{0,1;10000,2;20000,3;60000,4},2)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1887,7 +1900,7 @@
         <v>89</v>
       </c>
       <c r="J3" s="1">
-        <f>VLOOKUP(I3,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I3,{0,1;90,2;125,3;200,4},2)</f>
         <v>1</v>
       </c>
       <c r="K3" s="4" t="s">
@@ -1906,8 +1919,8 @@
         <v>21000</v>
       </c>
       <c r="P3" s="1">
-        <f>VLOOKUP(O3,{0,1;13000,2;25000,3;60000,4},2)</f>
-        <v>2</v>
+        <f>VLOOKUP(O3,{0,1;10000,2;20000,3;60000,4},2)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1940,7 +1953,7 @@
         <v>89</v>
       </c>
       <c r="J4" s="1">
-        <f>VLOOKUP(I4,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I4,{0,1;90,2;125,3;200,4},2)</f>
         <v>1</v>
       </c>
       <c r="K4" s="4" t="s">
@@ -1959,7 +1972,7 @@
         <v>17000</v>
       </c>
       <c r="P4" s="1">
-        <f>VLOOKUP(O4,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O4,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>2</v>
       </c>
     </row>
@@ -1993,7 +2006,7 @@
         <v>92</v>
       </c>
       <c r="J5" s="1">
-        <f>VLOOKUP(I5,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I5,{0,1;90,2;125,3;200,4},2)</f>
         <v>2</v>
       </c>
       <c r="K5" s="4" t="s">
@@ -2012,7 +2025,7 @@
         <v>32000</v>
       </c>
       <c r="P5" s="1">
-        <f>VLOOKUP(O5,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O5,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>3</v>
       </c>
     </row>
@@ -2046,7 +2059,7 @@
         <v>83</v>
       </c>
       <c r="J6" s="1">
-        <f>VLOOKUP(I6,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I6,{0,1;90,2;125,3;200,4},2)</f>
         <v>1</v>
       </c>
       <c r="K6" s="4" t="s">
@@ -2065,7 +2078,7 @@
         <v>7300</v>
       </c>
       <c r="P6" s="1">
-        <f>VLOOKUP(O6,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O6,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>1</v>
       </c>
     </row>
@@ -2099,7 +2112,7 @@
         <v>101</v>
       </c>
       <c r="J7" s="1">
-        <f>VLOOKUP(I7,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I7,{0,1;90,2;125,3;200,4},2)</f>
         <v>2</v>
       </c>
       <c r="K7" s="4" t="s">
@@ -2118,7 +2131,7 @@
         <v>19500</v>
       </c>
       <c r="P7" s="1">
-        <f>VLOOKUP(O7,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O7,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>2</v>
       </c>
     </row>
@@ -2152,8 +2165,8 @@
         <v>230</v>
       </c>
       <c r="J8" s="1">
-        <f>VLOOKUP(I8,{0,1;90,2;125,3;250,4},2)</f>
-        <v>3</v>
+        <f>VLOOKUP(I8,{0,1;90,2;125,3;200,4},2)</f>
+        <v>4</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>21</v>
@@ -2171,7 +2184,7 @@
         <v>32000</v>
       </c>
       <c r="P8" s="1">
-        <f>VLOOKUP(O8,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O8,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>3</v>
       </c>
     </row>
@@ -2205,7 +2218,7 @@
         <v>124</v>
       </c>
       <c r="J9" s="1">
-        <f>VLOOKUP(I9,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I9,{0,1;90,2;125,3;200,4},2)</f>
         <v>2</v>
       </c>
       <c r="K9" s="4" t="s">
@@ -2224,7 +2237,7 @@
         <v>36000</v>
       </c>
       <c r="P9" s="1">
-        <f>VLOOKUP(O9,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O9,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>3</v>
       </c>
     </row>
@@ -2258,7 +2271,7 @@
         <v>82</v>
       </c>
       <c r="J10" s="1">
-        <f>VLOOKUP(I10,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I10,{0,1;90,2;125,3;200,4},2)</f>
         <v>1</v>
       </c>
       <c r="K10" s="4" t="s">
@@ -2277,7 +2290,7 @@
         <v>56000</v>
       </c>
       <c r="P10" s="1">
-        <f>VLOOKUP(O10,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O10,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>3</v>
       </c>
     </row>
@@ -2311,7 +2324,7 @@
         <v>139</v>
       </c>
       <c r="J11" s="1">
-        <f>VLOOKUP(I11,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I11,{0,1;90,2;125,3;200,4},2)</f>
         <v>3</v>
       </c>
       <c r="K11" s="4" t="s">
@@ -2330,7 +2343,7 @@
         <v>75000</v>
       </c>
       <c r="P11" s="1">
-        <f>VLOOKUP(O11,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O11,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>4</v>
       </c>
     </row>
@@ -2364,7 +2377,7 @@
         <v>90</v>
       </c>
       <c r="J12" s="1">
-        <f>VLOOKUP(I12,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I12,{0,1;90,2;125,3;200,4},2)</f>
         <v>2</v>
       </c>
       <c r="K12" s="4" t="s">
@@ -2383,8 +2396,8 @@
         <v>12500</v>
       </c>
       <c r="P12" s="1">
-        <f>VLOOKUP(O12,{0,1;13000,2;25000,3;60000,4},2)</f>
-        <v>1</v>
+        <f>VLOOKUP(O12,{0,1;10000,2;20000,3;60000,4},2)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="27">
@@ -2417,7 +2430,7 @@
         <v>121</v>
       </c>
       <c r="J13" s="1">
-        <f>VLOOKUP(I13,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I13,{0,1;90,2;125,3;200,4},2)</f>
         <v>2</v>
       </c>
       <c r="K13" s="4" t="s">
@@ -2436,7 +2449,7 @@
         <v>17000</v>
       </c>
       <c r="P13" s="1">
-        <f>VLOOKUP(O13,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O13,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>2</v>
       </c>
     </row>
@@ -2470,7 +2483,7 @@
         <v>144</v>
       </c>
       <c r="J14" s="1">
-        <f>VLOOKUP(I14,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I14,{0,1;90,2;125,3;200,4},2)</f>
         <v>3</v>
       </c>
       <c r="K14" s="4" t="s">
@@ -2489,7 +2502,7 @@
         <v>41000</v>
       </c>
       <c r="P14" s="1">
-        <f>VLOOKUP(O14,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O14,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>3</v>
       </c>
     </row>
@@ -2523,7 +2536,7 @@
         <v>90</v>
       </c>
       <c r="J15" s="1">
-        <f>VLOOKUP(I15,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I15,{0,1;90,2;125,3;200,4},2)</f>
         <v>2</v>
       </c>
       <c r="K15" s="4" t="s">
@@ -2542,8 +2555,8 @@
         <v>10000</v>
       </c>
       <c r="P15" s="1">
-        <f>VLOOKUP(O15,{0,1;13000,2;25000,3;60000,4},2)</f>
-        <v>1</v>
+        <f>VLOOKUP(O15,{0,1;10000,2;20000,3;60000,4},2)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="40.5">
@@ -2576,7 +2589,7 @@
         <v>84</v>
       </c>
       <c r="J16" s="1">
-        <f>VLOOKUP(I16,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I16,{0,1;90,2;125,3;200,4},2)</f>
         <v>1</v>
       </c>
       <c r="K16" s="4" t="s">
@@ -2595,7 +2608,7 @@
         <v>8000</v>
       </c>
       <c r="P16" s="1">
-        <f>VLOOKUP(O16,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O16,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>1</v>
       </c>
     </row>
@@ -2629,7 +2642,7 @@
         <v>105</v>
       </c>
       <c r="J17" s="1">
-        <f>VLOOKUP(I17,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I17,{0,1;90,2;125,3;200,4},2)</f>
         <v>2</v>
       </c>
       <c r="K17" s="4" t="s">
@@ -2648,7 +2661,7 @@
         <v>9800</v>
       </c>
       <c r="P17" s="1">
-        <f>VLOOKUP(O17,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O17,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>1</v>
       </c>
     </row>
@@ -2682,7 +2695,7 @@
         <v>110</v>
       </c>
       <c r="J18" s="1">
-        <f>VLOOKUP(I18,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I18,{0,1;90,2;125,3;200,4},2)</f>
         <v>2</v>
       </c>
       <c r="K18" s="4" t="s">
@@ -2701,7 +2714,7 @@
         <v>29800</v>
       </c>
       <c r="P18" s="1">
-        <f>VLOOKUP(O18,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O18,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>3</v>
       </c>
     </row>
@@ -2735,7 +2748,7 @@
         <v>152</v>
       </c>
       <c r="J19" s="1">
-        <f>VLOOKUP(I19,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I19,{0,1;90,2;125,3;200,4},2)</f>
         <v>3</v>
       </c>
       <c r="K19" s="4" t="s">
@@ -2754,7 +2767,7 @@
         <v>30000</v>
       </c>
       <c r="P19" s="1">
-        <f>VLOOKUP(O19,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O19,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>3</v>
       </c>
     </row>
@@ -2788,7 +2801,7 @@
         <v>95</v>
       </c>
       <c r="J20" s="1">
-        <f>VLOOKUP(I20,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I20,{0,1;90,2;125,3;200,4},2)</f>
         <v>2</v>
       </c>
       <c r="K20" s="4" t="s">
@@ -2807,8 +2820,8 @@
         <v>22000</v>
       </c>
       <c r="P20" s="1">
-        <f>VLOOKUP(O20,{0,1;13000,2;25000,3;60000,4},2)</f>
-        <v>2</v>
+        <f>VLOOKUP(O20,{0,1;10000,2;20000,3;60000,4},2)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2841,7 +2854,7 @@
         <v>156</v>
       </c>
       <c r="J21" s="1">
-        <f>VLOOKUP(I21,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I21,{0,1;90,2;125,3;200,4},2)</f>
         <v>3</v>
       </c>
       <c r="K21" s="4" t="s">
@@ -2854,13 +2867,13 @@
         <v>55</v>
       </c>
       <c r="N21" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O21" s="4">
         <v>58000</v>
       </c>
       <c r="P21" s="1">
-        <f>VLOOKUP(O21,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O21,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>3</v>
       </c>
     </row>
@@ -2894,7 +2907,7 @@
         <v>150</v>
       </c>
       <c r="J22" s="1">
-        <f>VLOOKUP(I22,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I22,{0,1;90,2;125,3;200,4},2)</f>
         <v>3</v>
       </c>
       <c r="K22" s="4" t="s">
@@ -2913,7 +2926,7 @@
         <v>28000</v>
       </c>
       <c r="P22" s="1">
-        <f>VLOOKUP(O22,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O22,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>3</v>
       </c>
     </row>
@@ -2947,7 +2960,7 @@
         <v>56</v>
       </c>
       <c r="J23" s="1">
-        <f>VLOOKUP(I23,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I23,{0,1;90,2;125,3;200,4},2)</f>
         <v>1</v>
       </c>
       <c r="K23" s="4" t="s">
@@ -2966,7 +2979,7 @@
         <v>13000</v>
       </c>
       <c r="P23" s="1">
-        <f>VLOOKUP(O23,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O23,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>2</v>
       </c>
     </row>
@@ -3000,7 +3013,7 @@
         <v>79</v>
       </c>
       <c r="J24" s="1">
-        <f>VLOOKUP(I24,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I24,{0,1;90,2;125,3;200,4},2)</f>
         <v>1</v>
       </c>
       <c r="K24" s="4" t="s">
@@ -3019,7 +3032,7 @@
         <v>48000</v>
       </c>
       <c r="P24" s="1">
-        <f>VLOOKUP(O24,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O24,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>3</v>
       </c>
     </row>
@@ -3053,7 +3066,7 @@
         <v>145</v>
       </c>
       <c r="J25" s="1">
-        <f>VLOOKUP(I25,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I25,{0,1;90,2;125,3;200,4},2)</f>
         <v>3</v>
       </c>
       <c r="K25" s="4" t="s">
@@ -3072,7 +3085,7 @@
         <v>29800</v>
       </c>
       <c r="P25" s="1">
-        <f>VLOOKUP(O25,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O25,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>3</v>
       </c>
     </row>
@@ -3106,7 +3119,7 @@
         <v>53</v>
       </c>
       <c r="J26" s="1">
-        <f>VLOOKUP(I26,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I26,{0,1;90,2;125,3;200,4},2)</f>
         <v>1</v>
       </c>
       <c r="K26" s="4" t="s">
@@ -3125,8 +3138,8 @@
         <v>22500</v>
       </c>
       <c r="P26" s="1">
-        <f>VLOOKUP(O26,{0,1;13000,2;25000,3;60000,4},2)</f>
-        <v>2</v>
+        <f>VLOOKUP(O26,{0,1;10000,2;20000,3;60000,4},2)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="27">
@@ -3159,7 +3172,7 @@
         <v>174</v>
       </c>
       <c r="J27" s="1">
-        <f>VLOOKUP(I27,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I27,{0,1;90,2;125,3;200,4},2)</f>
         <v>3</v>
       </c>
       <c r="K27" s="4" t="s">
@@ -3178,7 +3191,7 @@
         <v>50000</v>
       </c>
       <c r="P27" s="1">
-        <f>VLOOKUP(O27,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O27,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>3</v>
       </c>
     </row>
@@ -3212,7 +3225,7 @@
         <v>162</v>
       </c>
       <c r="J28" s="1">
-        <f>VLOOKUP(I28,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I28,{0,1;90,2;125,3;200,4},2)</f>
         <v>3</v>
       </c>
       <c r="K28" s="4" t="s">
@@ -3231,7 +3244,7 @@
         <v>16000</v>
       </c>
       <c r="P28" s="1">
-        <f>VLOOKUP(O28,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O28,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>2</v>
       </c>
     </row>
@@ -3265,8 +3278,8 @@
         <v>204</v>
       </c>
       <c r="J29" s="1">
-        <f>VLOOKUP(I29,{0,1;90,2;125,3;250,4},2)</f>
-        <v>3</v>
+        <f>VLOOKUP(I29,{0,1;90,2;125,3;200,4},2)</f>
+        <v>4</v>
       </c>
       <c r="K29" s="4" t="s">
         <v>21</v>
@@ -3278,13 +3291,13 @@
         <v>70</v>
       </c>
       <c r="N29" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O29" s="4">
         <v>55000</v>
       </c>
       <c r="P29" s="1">
-        <f>VLOOKUP(O29,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O29,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>3</v>
       </c>
     </row>
@@ -3318,7 +3331,7 @@
         <v>413</v>
       </c>
       <c r="J30" s="1">
-        <f>VLOOKUP(I30,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I30,{0,1;90,2;125,3;200,4},2)</f>
         <v>4</v>
       </c>
       <c r="K30" s="4" t="s">
@@ -3337,8 +3350,8 @@
         <v>23000</v>
       </c>
       <c r="P30" s="1">
-        <f>VLOOKUP(O30,{0,1;13000,2;25000,3;60000,4},2)</f>
-        <v>2</v>
+        <f>VLOOKUP(O30,{0,1;10000,2;20000,3;60000,4},2)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="27">
@@ -3371,7 +3384,7 @@
         <v>406</v>
       </c>
       <c r="J31" s="1">
-        <f>VLOOKUP(I31,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I31,{0,1;90,2;125,3;200,4},2)</f>
         <v>4</v>
       </c>
       <c r="K31" s="4" t="s">
@@ -3390,7 +3403,7 @@
         <v>50000</v>
       </c>
       <c r="P31" s="1">
-        <f>VLOOKUP(O31,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O31,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>3</v>
       </c>
     </row>
@@ -3424,7 +3437,7 @@
         <v>181</v>
       </c>
       <c r="J32" s="1">
-        <f>VLOOKUP(I32,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I32,{0,1;90,2;125,3;200,4},2)</f>
         <v>3</v>
       </c>
       <c r="K32" s="4" t="s">
@@ -3443,7 +3456,7 @@
         <v>30000</v>
       </c>
       <c r="P32" s="1">
-        <f>VLOOKUP(O32,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O32,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>3</v>
       </c>
     </row>
@@ -3477,7 +3490,7 @@
         <v>92</v>
       </c>
       <c r="J33" s="1">
-        <f>VLOOKUP(I33,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I33,{0,1;90,2;125,3;200,4},2)</f>
         <v>2</v>
       </c>
       <c r="K33" s="4" t="s">
@@ -3496,8 +3509,8 @@
         <v>12000</v>
       </c>
       <c r="P33" s="1">
-        <f>VLOOKUP(O33,{0,1;13000,2;25000,3;60000,4},2)</f>
-        <v>1</v>
+        <f>VLOOKUP(O33,{0,1;10000,2;20000,3;60000,4},2)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="40.5">
@@ -3530,7 +3543,7 @@
         <v>186</v>
       </c>
       <c r="J34" s="1">
-        <f>VLOOKUP(I34,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I34,{0,1;90,2;125,3;200,4},2)</f>
         <v>3</v>
       </c>
       <c r="K34" s="4" t="s">
@@ -3549,7 +3562,7 @@
         <v>65000</v>
       </c>
       <c r="P34" s="1">
-        <f>VLOOKUP(O34,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O34,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>4</v>
       </c>
     </row>
@@ -3583,7 +3596,7 @@
         <v>268</v>
       </c>
       <c r="J35" s="1">
-        <f>VLOOKUP(I35,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I35,{0,1;90,2;125,3;200,4},2)</f>
         <v>4</v>
       </c>
       <c r="K35" s="4" t="s">
@@ -3602,7 +3615,7 @@
         <v>100000</v>
       </c>
       <c r="P35" s="1">
-        <f>VLOOKUP(O35,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O35,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>4</v>
       </c>
     </row>
@@ -3636,7 +3649,7 @@
         <v>179</v>
       </c>
       <c r="J36" s="1">
-        <f>VLOOKUP(I36,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I36,{0,1;90,2;125,3;200,4},2)</f>
         <v>3</v>
       </c>
       <c r="K36" s="4" t="s">
@@ -3655,7 +3668,7 @@
         <v>39500</v>
       </c>
       <c r="P36" s="1">
-        <f>VLOOKUP(O36,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O36,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>3</v>
       </c>
     </row>
@@ -3689,7 +3702,7 @@
         <v>756</v>
       </c>
       <c r="J37" s="1">
-        <f>VLOOKUP(I37,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I37,{0,1;90,2;125,3;200,4},2)</f>
         <v>4</v>
       </c>
       <c r="K37" s="4" t="s">
@@ -3708,7 +3721,7 @@
         <v>50000</v>
       </c>
       <c r="P37" s="1">
-        <f>VLOOKUP(O37,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O37,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>3</v>
       </c>
     </row>
@@ -3742,8 +3755,8 @@
         <v>246</v>
       </c>
       <c r="J38" s="1">
-        <f>VLOOKUP(I38,{0,1;90,2;125,3;250,4},2)</f>
-        <v>3</v>
+        <f>VLOOKUP(I38,{0,1;90,2;125,3;200,4},2)</f>
+        <v>4</v>
       </c>
       <c r="K38" s="4" t="s">
         <v>21</v>
@@ -3761,7 +3774,7 @@
         <v>28000</v>
       </c>
       <c r="P38" s="1">
-        <f>VLOOKUP(O38,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O38,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>3</v>
       </c>
     </row>
@@ -3795,7 +3808,7 @@
         <v>140</v>
       </c>
       <c r="J39" s="1">
-        <f>VLOOKUP(I39,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I39,{0,1;90,2;125,3;200,4},2)</f>
         <v>3</v>
       </c>
       <c r="K39" s="4" t="s">
@@ -3814,7 +3827,7 @@
         <v>13500</v>
       </c>
       <c r="P39" s="1">
-        <f>VLOOKUP(O39,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O39,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>2</v>
       </c>
     </row>
@@ -3848,7 +3861,7 @@
         <v>105</v>
       </c>
       <c r="J40" s="1">
-        <f>VLOOKUP(I40,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I40,{0,1;90,2;125,3;200,4},2)</f>
         <v>2</v>
       </c>
       <c r="K40" s="4" t="s">
@@ -3867,7 +3880,7 @@
         <v>16000</v>
       </c>
       <c r="P40" s="1">
-        <f>VLOOKUP(O40,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O40,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>2</v>
       </c>
     </row>
@@ -3901,7 +3914,7 @@
         <v>180</v>
       </c>
       <c r="J41" s="1">
-        <f>VLOOKUP(I41,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I41,{0,1;90,2;125,3;200,4},2)</f>
         <v>3</v>
       </c>
       <c r="K41" s="4" t="s">
@@ -3920,7 +3933,7 @@
         <v>19000</v>
       </c>
       <c r="P41" s="1">
-        <f>VLOOKUP(O41,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O41,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>2</v>
       </c>
     </row>
@@ -3954,7 +3967,7 @@
         <v>76</v>
       </c>
       <c r="J42" s="1">
-        <f>VLOOKUP(I42,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I42,{0,1;90,2;125,3;200,4},2)</f>
         <v>1</v>
       </c>
       <c r="K42" s="4" t="s">
@@ -3973,7 +3986,7 @@
         <v>15000</v>
       </c>
       <c r="P42" s="1">
-        <f>VLOOKUP(O42,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O42,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>2</v>
       </c>
     </row>
@@ -4007,7 +4020,7 @@
         <v>93</v>
       </c>
       <c r="J43" s="1">
-        <f>VLOOKUP(I43,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I43,{0,1;90,2;125,3;200,4},2)</f>
         <v>2</v>
       </c>
       <c r="K43" s="4" t="s">
@@ -4026,8 +4039,8 @@
         <v>23000</v>
       </c>
       <c r="P43" s="1">
-        <f>VLOOKUP(O43,{0,1;13000,2;25000,3;60000,4},2)</f>
-        <v>2</v>
+        <f>VLOOKUP(O43,{0,1;10000,2;20000,3;60000,4},2)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -4060,7 +4073,7 @@
         <v>113</v>
       </c>
       <c r="J44" s="1">
-        <f>VLOOKUP(I44,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I44,{0,1;90,2;125,3;200,4},2)</f>
         <v>2</v>
       </c>
       <c r="K44" s="4" t="s">
@@ -4079,7 +4092,7 @@
         <v>35000</v>
       </c>
       <c r="P44" s="1">
-        <f>VLOOKUP(O44,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O44,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>3</v>
       </c>
     </row>
@@ -4113,7 +4126,7 @@
         <v>94</v>
       </c>
       <c r="J45" s="1">
-        <f>VLOOKUP(I45,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I45,{0,1;90,2;125,3;200,4},2)</f>
         <v>2</v>
       </c>
       <c r="K45" s="4" t="s">
@@ -4132,8 +4145,8 @@
         <v>20000</v>
       </c>
       <c r="P45" s="1">
-        <f>VLOOKUP(O45,{0,1;13000,2;25000,3;60000,4},2)</f>
-        <v>2</v>
+        <f>VLOOKUP(O45,{0,1;10000,2;20000,3;60000,4},2)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -4166,7 +4179,7 @@
         <v>104</v>
       </c>
       <c r="J46" s="1">
-        <f>VLOOKUP(I46,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I46,{0,1;90,2;125,3;200,4},2)</f>
         <v>2</v>
       </c>
       <c r="K46" s="4" t="s">
@@ -4185,8 +4198,8 @@
         <v>12000</v>
       </c>
       <c r="P46" s="1">
-        <f>VLOOKUP(O46,{0,1;13000,2;25000,3;60000,4},2)</f>
-        <v>1</v>
+        <f>VLOOKUP(O46,{0,1;10000,2;20000,3;60000,4},2)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -4219,7 +4232,7 @@
         <v>118</v>
       </c>
       <c r="J47" s="1">
-        <f>VLOOKUP(I47,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I47,{0,1;90,2;125,3;200,4},2)</f>
         <v>2</v>
       </c>
       <c r="K47" s="4" t="s">
@@ -4238,7 +4251,7 @@
         <v>54000</v>
       </c>
       <c r="P47" s="1">
-        <f>VLOOKUP(O47,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O47,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>3</v>
       </c>
     </row>
@@ -4272,7 +4285,7 @@
         <v>76</v>
       </c>
       <c r="J48" s="1">
-        <f>VLOOKUP(I48,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I48,{0,1;90,2;125,3;200,4},2)</f>
         <v>1</v>
       </c>
       <c r="K48" s="4" t="s">
@@ -4291,7 +4304,7 @@
         <v>17000</v>
       </c>
       <c r="P48" s="1">
-        <f>VLOOKUP(O48,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O48,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>2</v>
       </c>
     </row>
@@ -4325,7 +4338,7 @@
         <v>93</v>
       </c>
       <c r="J49" s="1">
-        <f>VLOOKUP(I49,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I49,{0,1;90,2;125,3;200,4},2)</f>
         <v>2</v>
       </c>
       <c r="K49" s="4" t="s">
@@ -4344,7 +4357,7 @@
         <v>19000</v>
       </c>
       <c r="P49" s="1">
-        <f>VLOOKUP(O49,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O49,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>2</v>
       </c>
     </row>
@@ -4378,7 +4391,7 @@
         <v>88</v>
       </c>
       <c r="J50" s="1">
-        <f>VLOOKUP(I50,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I50,{0,1;90,2;125,3;200,4},2)</f>
         <v>1</v>
       </c>
       <c r="K50" s="4" t="s">
@@ -4397,7 +4410,7 @@
         <v>15320</v>
       </c>
       <c r="P50" s="1">
-        <f>VLOOKUP(O50,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O50,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>2</v>
       </c>
     </row>
@@ -4431,7 +4444,7 @@
         <v>123</v>
       </c>
       <c r="J51" s="1">
-        <f>VLOOKUP(I51,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I51,{0,1;90,2;125,3;200,4},2)</f>
         <v>2</v>
       </c>
       <c r="K51" s="4" t="s">
@@ -4450,7 +4463,7 @@
         <v>17000</v>
       </c>
       <c r="P51" s="1">
-        <f>VLOOKUP(O51,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O51,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>2</v>
       </c>
     </row>
@@ -4484,7 +4497,7 @@
         <v>57</v>
       </c>
       <c r="J52" s="1">
-        <f>VLOOKUP(I52,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I52,{0,1;90,2;125,3;200,4},2)</f>
         <v>1</v>
       </c>
       <c r="K52" s="4" t="s">
@@ -4503,8 +4516,8 @@
         <v>22800</v>
       </c>
       <c r="P52" s="1">
-        <f>VLOOKUP(O52,{0,1;13000,2;25000,3;60000,4},2)</f>
-        <v>2</v>
+        <f>VLOOKUP(O52,{0,1;10000,2;20000,3;60000,4},2)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -4537,7 +4550,7 @@
         <v>152</v>
       </c>
       <c r="J53" s="1">
-        <f>VLOOKUP(I53,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I53,{0,1;90,2;125,3;200,4},2)</f>
         <v>3</v>
       </c>
       <c r="K53" s="4" t="s">
@@ -4556,7 +4569,7 @@
         <v>37000</v>
       </c>
       <c r="P53" s="1">
-        <f>VLOOKUP(O53,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O53,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>3</v>
       </c>
     </row>
@@ -4590,7 +4603,7 @@
         <v>35</v>
       </c>
       <c r="J54" s="1">
-        <f>VLOOKUP(I54,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I54,{0,1;90,2;125,3;200,4},2)</f>
         <v>1</v>
       </c>
       <c r="K54" s="4" t="s">
@@ -4609,7 +4622,7 @@
         <v>31000</v>
       </c>
       <c r="P54" s="1">
-        <f>VLOOKUP(O54,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O54,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>3</v>
       </c>
     </row>
@@ -4643,7 +4656,7 @@
         <v>347</v>
       </c>
       <c r="J55" s="1">
-        <f>VLOOKUP(I55,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I55,{0,1;90,2;125,3;200,4},2)</f>
         <v>4</v>
       </c>
       <c r="K55" s="4" t="s">
@@ -4662,7 +4675,7 @@
         <v>160000</v>
       </c>
       <c r="P55" s="1">
-        <f>VLOOKUP(O55,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O55,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>4</v>
       </c>
     </row>
@@ -4696,7 +4709,7 @@
         <v>85</v>
       </c>
       <c r="J56" s="1">
-        <f>VLOOKUP(I56,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I56,{0,1;90,2;125,3;200,4},2)</f>
         <v>1</v>
       </c>
       <c r="K56" s="4" t="s">
@@ -4715,7 +4728,7 @@
         <v>15000</v>
       </c>
       <c r="P56" s="1">
-        <f>VLOOKUP(O56,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O56,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>2</v>
       </c>
     </row>
@@ -4749,7 +4762,7 @@
         <v>88</v>
       </c>
       <c r="J57" s="1">
-        <f>VLOOKUP(I57,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I57,{0,1;90,2;125,3;200,4},2)</f>
         <v>1</v>
       </c>
       <c r="K57" s="4" t="s">
@@ -4768,7 +4781,7 @@
         <v>40000</v>
       </c>
       <c r="P57" s="1">
-        <f>VLOOKUP(O57,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O57,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>3</v>
       </c>
     </row>
@@ -4802,7 +4815,7 @@
         <v>72</v>
       </c>
       <c r="J58" s="1">
-        <f>VLOOKUP(I58,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I58,{0,1;90,2;125,3;200,4},2)</f>
         <v>1</v>
       </c>
       <c r="K58" s="4" t="s">
@@ -4821,7 +4834,7 @@
         <v>38000</v>
       </c>
       <c r="P58" s="1">
-        <f>VLOOKUP(O58,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O58,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>3</v>
       </c>
     </row>
@@ -4855,7 +4868,7 @@
         <v>82</v>
       </c>
       <c r="J59" s="1">
-        <f>VLOOKUP(I59,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I59,{0,1;90,2;125,3;200,4},2)</f>
         <v>1</v>
       </c>
       <c r="K59" s="4" t="s">
@@ -4874,7 +4887,7 @@
         <v>5000</v>
       </c>
       <c r="P59" s="1">
-        <f>VLOOKUP(O59,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O59,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>1</v>
       </c>
     </row>
@@ -4908,7 +4921,7 @@
         <v>82</v>
       </c>
       <c r="J60" s="1">
-        <f>VLOOKUP(I60,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I60,{0,1;90,2;125,3;200,4},2)</f>
         <v>1</v>
       </c>
       <c r="K60" s="4" t="s">
@@ -4927,7 +4940,7 @@
         <v>6400</v>
       </c>
       <c r="P60" s="1">
-        <f>VLOOKUP(O60,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O60,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>1</v>
       </c>
     </row>
@@ -4961,7 +4974,7 @@
         <v>103</v>
       </c>
       <c r="J61" s="1">
-        <f>VLOOKUP(I61,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I61,{0,1;90,2;125,3;200,4},2)</f>
         <v>2</v>
       </c>
       <c r="K61" s="4" t="s">
@@ -4980,8 +4993,8 @@
         <v>24000</v>
       </c>
       <c r="P61" s="1">
-        <f>VLOOKUP(O61,{0,1;13000,2;25000,3;60000,4},2)</f>
-        <v>2</v>
+        <f>VLOOKUP(O61,{0,1;10000,2;20000,3;60000,4},2)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -5014,7 +5027,7 @@
         <v>72</v>
       </c>
       <c r="J62" s="1">
-        <f>VLOOKUP(I62,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I62,{0,1;90,2;125,3;200,4},2)</f>
         <v>1</v>
       </c>
       <c r="K62" s="4" t="s">
@@ -5033,7 +5046,7 @@
         <v>26000</v>
       </c>
       <c r="P62" s="1">
-        <f>VLOOKUP(O62,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O62,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>3</v>
       </c>
     </row>
@@ -5067,7 +5080,7 @@
         <v>125</v>
       </c>
       <c r="J63" s="1">
-        <f>VLOOKUP(I63,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I63,{0,1;90,2;125,3;200,4},2)</f>
         <v>3</v>
       </c>
       <c r="K63" s="4" t="s">
@@ -5086,7 +5099,7 @@
         <v>42000</v>
       </c>
       <c r="P63" s="1">
-        <f>VLOOKUP(O63,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O63,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>3</v>
       </c>
     </row>
@@ -5120,7 +5133,7 @@
         <v>84</v>
       </c>
       <c r="J64" s="1">
-        <f>VLOOKUP(I64,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I64,{0,1;90,2;125,3;200,4},2)</f>
         <v>1</v>
       </c>
       <c r="K64" s="4" t="s">
@@ -5139,7 +5152,7 @@
         <v>30000</v>
       </c>
       <c r="P64" s="1">
-        <f>VLOOKUP(O64,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O64,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>3</v>
       </c>
     </row>
@@ -5173,7 +5186,7 @@
         <v>75</v>
       </c>
       <c r="J65" s="1">
-        <f>VLOOKUP(I65,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I65,{0,1;90,2;125,3;200,4},2)</f>
         <v>1</v>
       </c>
       <c r="K65" s="4" t="s">
@@ -5192,7 +5205,7 @@
         <v>17000</v>
       </c>
       <c r="P65" s="1">
-        <f>VLOOKUP(O65,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O65,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>2</v>
       </c>
     </row>
@@ -5226,7 +5239,7 @@
         <v>66</v>
       </c>
       <c r="J66" s="1">
-        <f>VLOOKUP(I66,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I66,{0,1;90,2;125,3;200,4},2)</f>
         <v>1</v>
       </c>
       <c r="K66" s="4" t="s">
@@ -5245,8 +5258,8 @@
         <v>24000</v>
       </c>
       <c r="P66" s="1">
-        <f>VLOOKUP(O66,{0,1;13000,2;25000,3;60000,4},2)</f>
-        <v>2</v>
+        <f>VLOOKUP(O66,{0,1;10000,2;20000,3;60000,4},2)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -5279,7 +5292,7 @@
         <v>373</v>
       </c>
       <c r="J67" s="1">
-        <f>VLOOKUP(I67,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I67,{0,1;90,2;125,3;200,4},2)</f>
         <v>4</v>
       </c>
       <c r="K67" s="4" t="s">
@@ -5298,7 +5311,7 @@
         <v>35000</v>
       </c>
       <c r="P67" s="1">
-        <f>VLOOKUP(O67,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O67,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>3</v>
       </c>
     </row>
@@ -5332,7 +5345,7 @@
         <v>86</v>
       </c>
       <c r="J68" s="1">
-        <f>VLOOKUP(I68,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I68,{0,1;90,2;125,3;200,4},2)</f>
         <v>1</v>
       </c>
       <c r="K68" s="4" t="s">
@@ -5351,8 +5364,8 @@
         <v>24000</v>
       </c>
       <c r="P68" s="1">
-        <f>VLOOKUP(O68,{0,1;13000,2;25000,3;60000,4},2)</f>
-        <v>2</v>
+        <f>VLOOKUP(O68,{0,1;10000,2;20000,3;60000,4},2)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -5385,7 +5398,7 @@
         <v>43</v>
       </c>
       <c r="J69" s="1">
-        <f>VLOOKUP(I69,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I69,{0,1;90,2;125,3;200,4},2)</f>
         <v>1</v>
       </c>
       <c r="K69" s="4" t="s">
@@ -5404,7 +5417,7 @@
         <v>27000</v>
       </c>
       <c r="P69" s="1">
-        <f>VLOOKUP(O69,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O69,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>3</v>
       </c>
     </row>
@@ -5438,7 +5451,7 @@
         <v>85</v>
       </c>
       <c r="J70" s="1">
-        <f>VLOOKUP(I70,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I70,{0,1;90,2;125,3;200,4},2)</f>
         <v>1</v>
       </c>
       <c r="K70" s="4" t="s">
@@ -5457,8 +5470,8 @@
         <v>20000</v>
       </c>
       <c r="P70" s="1">
-        <f>VLOOKUP(O70,{0,1;13000,2;25000,3;60000,4},2)</f>
-        <v>2</v>
+        <f>VLOOKUP(O70,{0,1;10000,2;20000,3;60000,4},2)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -5491,7 +5504,7 @@
         <v>187</v>
       </c>
       <c r="J71" s="1">
-        <f>VLOOKUP(I71,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I71,{0,1;90,2;125,3;200,4},2)</f>
         <v>3</v>
       </c>
       <c r="K71" s="4" t="s">
@@ -5510,8 +5523,8 @@
         <v>22000</v>
       </c>
       <c r="P71" s="1">
-        <f>VLOOKUP(O71,{0,1;13000,2;25000,3;60000,4},2)</f>
-        <v>2</v>
+        <f>VLOOKUP(O71,{0,1;10000,2;20000,3;60000,4},2)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -5544,7 +5557,7 @@
         <v>86</v>
       </c>
       <c r="J72" s="1">
-        <f>VLOOKUP(I72,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I72,{0,1;90,2;125,3;200,4},2)</f>
         <v>1</v>
       </c>
       <c r="K72" s="4" t="s">
@@ -5563,7 +5576,7 @@
         <v>30000</v>
       </c>
       <c r="P72" s="1">
-        <f>VLOOKUP(O72,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O72,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>3</v>
       </c>
     </row>
@@ -5597,7 +5610,7 @@
         <v>136</v>
       </c>
       <c r="J73" s="1">
-        <f>VLOOKUP(I73,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I73,{0,1;90,2;125,3;200,4},2)</f>
         <v>3</v>
       </c>
       <c r="K73" s="4" t="s">
@@ -5616,7 +5629,7 @@
         <v>45000</v>
       </c>
       <c r="P73" s="1">
-        <f>VLOOKUP(O73,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O73,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>3</v>
       </c>
     </row>
@@ -5650,8 +5663,8 @@
         <v>243</v>
       </c>
       <c r="J74" s="1">
-        <f>VLOOKUP(I74,{0,1;90,2;125,3;250,4},2)</f>
-        <v>3</v>
+        <f>VLOOKUP(I74,{0,1;90,2;125,3;200,4},2)</f>
+        <v>4</v>
       </c>
       <c r="K74" s="4" t="s">
         <v>117</v>
@@ -5669,7 +5682,7 @@
         <v>40000</v>
       </c>
       <c r="P74" s="1">
-        <f>VLOOKUP(O74,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O74,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>3</v>
       </c>
     </row>
@@ -5703,7 +5716,7 @@
         <v>55</v>
       </c>
       <c r="J75" s="1">
-        <f>VLOOKUP(I75,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I75,{0,1;90,2;125,3;200,4},2)</f>
         <v>1</v>
       </c>
       <c r="K75" s="4" t="s">
@@ -5722,7 +5735,7 @@
         <v>19000</v>
       </c>
       <c r="P75" s="1">
-        <f>VLOOKUP(O75,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O75,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>2</v>
       </c>
     </row>
@@ -5756,7 +5769,7 @@
         <v>55</v>
       </c>
       <c r="J76" s="1">
-        <f>VLOOKUP(I76,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I76,{0,1;90,2;125,3;200,4},2)</f>
         <v>1</v>
       </c>
       <c r="K76" s="4" t="s">
@@ -5775,7 +5788,7 @@
         <v>27000</v>
       </c>
       <c r="P76" s="1">
-        <f>VLOOKUP(O76,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O76,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>3</v>
       </c>
     </row>
@@ -5809,7 +5822,7 @@
         <v>106</v>
       </c>
       <c r="J77" s="1">
-        <f>VLOOKUP(I77,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I77,{0,1;90,2;125,3;200,4},2)</f>
         <v>2</v>
       </c>
       <c r="K77" s="4" t="s">
@@ -5828,8 +5841,8 @@
         <v>20000</v>
       </c>
       <c r="P77" s="1">
-        <f>VLOOKUP(O77,{0,1;13000,2;25000,3;60000,4},2)</f>
-        <v>2</v>
+        <f>VLOOKUP(O77,{0,1;10000,2;20000,3;60000,4},2)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -5862,7 +5875,7 @@
         <v>42</v>
       </c>
       <c r="J78" s="1">
-        <f>VLOOKUP(I78,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I78,{0,1;90,2;125,3;200,4},2)</f>
         <v>1</v>
       </c>
       <c r="K78" s="4" t="s">
@@ -5881,7 +5894,7 @@
         <v>25000</v>
       </c>
       <c r="P78" s="1">
-        <f>VLOOKUP(O78,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O78,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>3</v>
       </c>
     </row>
@@ -5915,7 +5928,7 @@
         <v>107</v>
       </c>
       <c r="J79" s="1">
-        <f>VLOOKUP(I79,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I79,{0,1;90,2;125,3;200,4},2)</f>
         <v>2</v>
       </c>
       <c r="K79" s="4" t="s">
@@ -5934,7 +5947,7 @@
         <v>46000</v>
       </c>
       <c r="P79" s="1">
-        <f>VLOOKUP(O79,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O79,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>3</v>
       </c>
     </row>
@@ -5968,7 +5981,7 @@
         <v>96</v>
       </c>
       <c r="J80" s="1">
-        <f>VLOOKUP(I80,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I80,{0,1;90,2;125,3;200,4},2)</f>
         <v>2</v>
       </c>
       <c r="K80" s="4" t="s">
@@ -5987,8 +6000,8 @@
         <v>21000</v>
       </c>
       <c r="P80" s="1">
-        <f>VLOOKUP(O80,{0,1;13000,2;25000,3;60000,4},2)</f>
-        <v>2</v>
+        <f>VLOOKUP(O80,{0,1;10000,2;20000,3;60000,4},2)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -6021,7 +6034,7 @@
         <v>72</v>
       </c>
       <c r="J81" s="1">
-        <f>VLOOKUP(I81,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I81,{0,1;90,2;125,3;200,4},2)</f>
         <v>1</v>
       </c>
       <c r="K81" s="4" t="s">
@@ -6040,7 +6053,7 @@
         <v>30000</v>
       </c>
       <c r="P81" s="1">
-        <f>VLOOKUP(O81,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O81,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>3</v>
       </c>
     </row>
@@ -6074,7 +6087,7 @@
         <v>73</v>
       </c>
       <c r="J82" s="1">
-        <f>VLOOKUP(I82,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I82,{0,1;90,2;125,3;200,4},2)</f>
         <v>1</v>
       </c>
       <c r="K82" s="4" t="s">
@@ -6093,7 +6106,7 @@
         <v>28000</v>
       </c>
       <c r="P82" s="1">
-        <f>VLOOKUP(O82,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O82,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>3</v>
       </c>
     </row>
@@ -6127,7 +6140,7 @@
         <v>56</v>
       </c>
       <c r="J83" s="1">
-        <f>VLOOKUP(I83,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I83,{0,1;90,2;125,3;200,4},2)</f>
         <v>1</v>
       </c>
       <c r="K83" s="4" t="s">
@@ -6146,7 +6159,7 @@
         <v>27000</v>
       </c>
       <c r="P83" s="1">
-        <f>VLOOKUP(O83,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O83,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>3</v>
       </c>
     </row>
@@ -6180,7 +6193,7 @@
         <v>128</v>
       </c>
       <c r="J84" s="1">
-        <f>VLOOKUP(I84,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I84,{0,1;90,2;125,3;200,4},2)</f>
         <v>3</v>
       </c>
       <c r="K84" s="4" t="s">
@@ -6199,7 +6212,7 @@
         <v>50000</v>
       </c>
       <c r="P84" s="1">
-        <f>VLOOKUP(O84,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O84,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>3</v>
       </c>
     </row>
@@ -6233,7 +6246,7 @@
         <v>87</v>
       </c>
       <c r="J85" s="1">
-        <f>VLOOKUP(I85,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I85,{0,1;90,2;125,3;200,4},2)</f>
         <v>1</v>
       </c>
       <c r="K85" s="4" t="s">
@@ -6252,7 +6265,7 @@
         <v>3200</v>
       </c>
       <c r="P85" s="1">
-        <f>VLOOKUP(O85,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O85,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>1</v>
       </c>
     </row>
@@ -6286,7 +6299,7 @@
         <v>87</v>
       </c>
       <c r="J86" s="1">
-        <f>VLOOKUP(I86,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I86,{0,1;90,2;125,3;200,4},2)</f>
         <v>1</v>
       </c>
       <c r="K86" s="4" t="s">
@@ -6305,8 +6318,8 @@
         <v>20000</v>
       </c>
       <c r="P86" s="1">
-        <f>VLOOKUP(O86,{0,1;13000,2;25000,3;60000,4},2)</f>
-        <v>2</v>
+        <f>VLOOKUP(O86,{0,1;10000,2;20000,3;60000,4},2)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -6339,7 +6352,7 @@
         <v>124</v>
       </c>
       <c r="J87" s="1">
-        <f>VLOOKUP(I87,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I87,{0,1;90,2;125,3;200,4},2)</f>
         <v>2</v>
       </c>
       <c r="K87" s="4" t="s">
@@ -6358,7 +6371,7 @@
         <v>52000</v>
       </c>
       <c r="P87" s="1">
-        <f>VLOOKUP(O87,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O87,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>3</v>
       </c>
     </row>
@@ -6392,7 +6405,7 @@
         <v>42</v>
       </c>
       <c r="J88" s="1">
-        <f>VLOOKUP(I88,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I88,{0,1;90,2;125,3;200,4},2)</f>
         <v>1</v>
       </c>
       <c r="K88" s="4" t="s">
@@ -6411,7 +6424,7 @@
         <v>51000</v>
       </c>
       <c r="P88" s="1">
-        <f>VLOOKUP(O88,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O88,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>3</v>
       </c>
     </row>
@@ -6445,8 +6458,8 @@
         <v>235</v>
       </c>
       <c r="J89" s="1">
-        <f>VLOOKUP(I89,{0,1;90,2;125,3;250,4},2)</f>
-        <v>3</v>
+        <f>VLOOKUP(I89,{0,1;90,2;125,3;200,4},2)</f>
+        <v>4</v>
       </c>
       <c r="K89" s="4" t="s">
         <v>117</v>
@@ -6464,7 +6477,7 @@
         <v>71000</v>
       </c>
       <c r="P89" s="1">
-        <f>VLOOKUP(O89,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O89,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>4</v>
       </c>
     </row>
@@ -6498,7 +6511,7 @@
         <v>144</v>
       </c>
       <c r="J90" s="1">
-        <f>VLOOKUP(I90,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I90,{0,1;90,2;125,3;200,4},2)</f>
         <v>3</v>
       </c>
       <c r="K90" s="4" t="s">
@@ -6517,7 +6530,7 @@
         <v>26000</v>
       </c>
       <c r="P90" s="1">
-        <f>VLOOKUP(O90,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O90,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>3</v>
       </c>
     </row>
@@ -6551,7 +6564,7 @@
         <v>87</v>
       </c>
       <c r="J91" s="1">
-        <f>VLOOKUP(I91,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I91,{0,1;90,2;125,3;200,4},2)</f>
         <v>1</v>
       </c>
       <c r="K91" s="4" t="s">
@@ -6570,7 +6583,7 @@
         <v>31000</v>
       </c>
       <c r="P91" s="1">
-        <f>VLOOKUP(O91,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O91,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>3</v>
       </c>
     </row>
@@ -6604,7 +6617,7 @@
         <v>61</v>
       </c>
       <c r="J92" s="1">
-        <f>VLOOKUP(I92,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I92,{0,1;90,2;125,3;200,4},2)</f>
         <v>1</v>
       </c>
       <c r="K92" s="4" t="s">
@@ -6623,7 +6636,7 @@
         <v>32000</v>
       </c>
       <c r="P92" s="1">
-        <f>VLOOKUP(O92,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O92,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>3</v>
       </c>
     </row>
@@ -6657,7 +6670,7 @@
         <v>92</v>
       </c>
       <c r="J93" s="1">
-        <f>VLOOKUP(I93,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I93,{0,1;90,2;125,3;200,4},2)</f>
         <v>2</v>
       </c>
       <c r="K93" s="4" t="s">
@@ -6676,7 +6689,7 @@
         <v>30000</v>
       </c>
       <c r="P93" s="1">
-        <f>VLOOKUP(O93,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O93,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>3</v>
       </c>
     </row>
@@ -6710,7 +6723,7 @@
         <v>68</v>
       </c>
       <c r="J94" s="1">
-        <f>VLOOKUP(I94,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I94,{0,1;90,2;125,3;200,4},2)</f>
         <v>1</v>
       </c>
       <c r="K94" s="4" t="s">
@@ -6729,7 +6742,7 @@
         <v>27000</v>
       </c>
       <c r="P94" s="1">
-        <f>VLOOKUP(O94,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O94,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>3</v>
       </c>
     </row>
@@ -6763,7 +6776,7 @@
         <v>99</v>
       </c>
       <c r="J95" s="1">
-        <f>VLOOKUP(I95,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I95,{0,1;90,2;125,3;200,4},2)</f>
         <v>2</v>
       </c>
       <c r="K95" s="4" t="s">
@@ -6782,7 +6795,7 @@
         <v>40000</v>
       </c>
       <c r="P95" s="1">
-        <f>VLOOKUP(O95,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O95,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>3</v>
       </c>
     </row>
@@ -6816,7 +6829,7 @@
         <v>142</v>
       </c>
       <c r="J96" s="1">
-        <f>VLOOKUP(I96,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I96,{0,1;90,2;125,3;200,4},2)</f>
         <v>3</v>
       </c>
       <c r="K96" s="4" t="s">
@@ -6835,8 +6848,8 @@
         <v>24000</v>
       </c>
       <c r="P96" s="1">
-        <f>VLOOKUP(O96,{0,1;13000,2;25000,3;60000,4},2)</f>
-        <v>2</v>
+        <f>VLOOKUP(O96,{0,1;10000,2;20000,3;60000,4},2)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -6869,7 +6882,7 @@
         <v>142</v>
       </c>
       <c r="J97" s="1">
-        <f>VLOOKUP(I97,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I97,{0,1;90,2;125,3;200,4},2)</f>
         <v>3</v>
       </c>
       <c r="K97" s="4" t="s">
@@ -6888,7 +6901,7 @@
         <v>41000</v>
       </c>
       <c r="P97" s="1">
-        <f>VLOOKUP(O97,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O97,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>3</v>
       </c>
     </row>
@@ -6922,7 +6935,7 @@
         <v>88</v>
       </c>
       <c r="J98" s="1">
-        <f>VLOOKUP(I98,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I98,{0,1;90,2;125,3;200,4},2)</f>
         <v>1</v>
       </c>
       <c r="K98" s="4" t="s">
@@ -6941,8 +6954,8 @@
         <v>12500</v>
       </c>
       <c r="P98" s="1">
-        <f>VLOOKUP(O98,{0,1;13000,2;25000,3;60000,4},2)</f>
-        <v>1</v>
+        <f>VLOOKUP(O98,{0,1;10000,2;20000,3;60000,4},2)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -6975,7 +6988,7 @@
         <v>136</v>
       </c>
       <c r="J99" s="1">
-        <f>VLOOKUP(I99,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I99,{0,1;90,2;125,3;200,4},2)</f>
         <v>3</v>
       </c>
       <c r="K99" s="4" t="s">
@@ -6994,7 +7007,7 @@
         <v>46000</v>
       </c>
       <c r="P99" s="1">
-        <f>VLOOKUP(O99,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O99,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>3</v>
       </c>
     </row>
@@ -7028,7 +7041,7 @@
         <v>80</v>
       </c>
       <c r="J100" s="1">
-        <f>VLOOKUP(I100,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I100,{0,1;90,2;125,3;200,4},2)</f>
         <v>1</v>
       </c>
       <c r="K100" s="4" t="s">
@@ -7047,7 +7060,7 @@
         <v>48500</v>
       </c>
       <c r="P100" s="1">
-        <f>VLOOKUP(O100,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O100,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>3</v>
       </c>
     </row>
@@ -7081,7 +7094,7 @@
         <v>49</v>
       </c>
       <c r="J101" s="1">
-        <f>VLOOKUP(I101,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I101,{0,1;90,2;125,3;200,4},2)</f>
         <v>1</v>
       </c>
       <c r="K101" s="4" t="s">
@@ -7100,7 +7113,7 @@
         <v>38000</v>
       </c>
       <c r="P101" s="1">
-        <f>VLOOKUP(O101,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O101,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>3</v>
       </c>
     </row>
@@ -7134,7 +7147,7 @@
         <v>32</v>
       </c>
       <c r="J102" s="1">
-        <f>VLOOKUP(I102,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I102,{0,1;90,2;125,3;200,4},2)</f>
         <v>1</v>
       </c>
       <c r="K102" s="4" t="s">
@@ -7153,7 +7166,7 @@
         <v>27500</v>
       </c>
       <c r="P102" s="1">
-        <f>VLOOKUP(O102,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O102,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>3</v>
       </c>
     </row>
@@ -7187,7 +7200,7 @@
         <v>107</v>
       </c>
       <c r="J103" s="1">
-        <f>VLOOKUP(I103,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I103,{0,1;90,2;125,3;200,4},2)</f>
         <v>2</v>
       </c>
       <c r="K103" s="4" t="s">
@@ -7206,7 +7219,7 @@
         <v>65000</v>
       </c>
       <c r="P103" s="1">
-        <f>VLOOKUP(O103,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O103,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>4</v>
       </c>
     </row>
@@ -7240,7 +7253,7 @@
         <v>124</v>
       </c>
       <c r="J104" s="1">
-        <f>VLOOKUP(I104,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I104,{0,1;90,2;125,3;200,4},2)</f>
         <v>2</v>
       </c>
       <c r="K104" s="4" t="s">
@@ -7259,7 +7272,7 @@
         <v>54000</v>
       </c>
       <c r="P104" s="1">
-        <f>VLOOKUP(O104,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O104,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>3</v>
       </c>
     </row>
@@ -7293,7 +7306,7 @@
         <v>62</v>
       </c>
       <c r="J105" s="1">
-        <f>VLOOKUP(I105,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I105,{0,1;90,2;125,3;200,4},2)</f>
         <v>1</v>
       </c>
       <c r="K105" s="4" t="s">
@@ -7312,7 +7325,7 @@
         <v>16000</v>
       </c>
       <c r="P105" s="1">
-        <f>VLOOKUP(O105,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O105,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>2</v>
       </c>
     </row>
@@ -7346,7 +7359,7 @@
         <v>101</v>
       </c>
       <c r="J106" s="1">
-        <f>VLOOKUP(I106,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I106,{0,1;90,2;125,3;200,4},2)</f>
         <v>2</v>
       </c>
       <c r="K106" s="4" t="s">
@@ -7365,7 +7378,7 @@
         <v>34650</v>
       </c>
       <c r="P106" s="1">
-        <f>VLOOKUP(O106,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O106,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>3</v>
       </c>
     </row>
@@ -7399,7 +7412,7 @@
         <v>130</v>
       </c>
       <c r="J107" s="1">
-        <f>VLOOKUP(I107,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I107,{0,1;90,2;125,3;200,4},2)</f>
         <v>3</v>
       </c>
       <c r="K107" s="4" t="s">
@@ -7418,7 +7431,7 @@
         <v>50000</v>
       </c>
       <c r="P107" s="1">
-        <f>VLOOKUP(O107,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O107,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>3</v>
       </c>
     </row>
@@ -7452,7 +7465,7 @@
         <v>109</v>
       </c>
       <c r="J108" s="1">
-        <f>VLOOKUP(I108,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I108,{0,1;90,2;125,3;200,4},2)</f>
         <v>2</v>
       </c>
       <c r="K108" s="4" t="s">
@@ -7471,7 +7484,7 @@
         <v>45000</v>
       </c>
       <c r="P108" s="1">
-        <f>VLOOKUP(O108,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O108,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>3</v>
       </c>
     </row>
@@ -7505,7 +7518,7 @@
         <v>100</v>
       </c>
       <c r="J109" s="1">
-        <f>VLOOKUP(I109,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I109,{0,1;90,2;125,3;200,4},2)</f>
         <v>2</v>
       </c>
       <c r="K109" s="4" t="s">
@@ -7524,8 +7537,8 @@
         <v>20000</v>
       </c>
       <c r="P109" s="1">
-        <f>VLOOKUP(O109,{0,1;13000,2;25000,3;60000,4},2)</f>
-        <v>2</v>
+        <f>VLOOKUP(O109,{0,1;10000,2;20000,3;60000,4},2)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="110" spans="1:16">
@@ -7558,7 +7571,7 @@
         <v>137</v>
       </c>
       <c r="J110" s="1">
-        <f>VLOOKUP(I110,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I110,{0,1;90,2;125,3;200,4},2)</f>
         <v>3</v>
       </c>
       <c r="K110" s="4" t="s">
@@ -7577,7 +7590,7 @@
         <v>17000</v>
       </c>
       <c r="P110" s="1">
-        <f>VLOOKUP(O110,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O110,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>2</v>
       </c>
     </row>
@@ -7611,7 +7624,7 @@
         <v>88</v>
       </c>
       <c r="J111" s="1">
-        <f>VLOOKUP(I111,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I111,{0,1;90,2;125,3;200,4},2)</f>
         <v>1</v>
       </c>
       <c r="K111" s="4" t="s">
@@ -7630,7 +7643,7 @@
         <v>7600</v>
       </c>
       <c r="P111" s="1">
-        <f>VLOOKUP(O111,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O111,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>1</v>
       </c>
     </row>
@@ -7664,7 +7677,7 @@
         <v>145</v>
       </c>
       <c r="J112" s="1">
-        <f>VLOOKUP(I112,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I112,{0,1;90,2;125,3;200,4},2)</f>
         <v>3</v>
       </c>
       <c r="K112" s="4" t="s">
@@ -7683,7 +7696,7 @@
         <v>45000</v>
       </c>
       <c r="P112" s="1">
-        <f>VLOOKUP(O112,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O112,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>3</v>
       </c>
     </row>
@@ -7717,7 +7730,7 @@
         <v>91</v>
       </c>
       <c r="J113" s="1">
-        <f>VLOOKUP(I113,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I113,{0,1;90,2;125,3;200,4},2)</f>
         <v>2</v>
       </c>
       <c r="K113" s="4" t="s">
@@ -7736,8 +7749,8 @@
         <v>22000</v>
       </c>
       <c r="P113" s="1">
-        <f>VLOOKUP(O113,{0,1;13000,2;25000,3;60000,4},2)</f>
-        <v>2</v>
+        <f>VLOOKUP(O113,{0,1;10000,2;20000,3;60000,4},2)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="114" spans="1:16">
@@ -7770,7 +7783,7 @@
         <v>96</v>
       </c>
       <c r="J114" s="1">
-        <f>VLOOKUP(I114,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I114,{0,1;90,2;125,3;200,4},2)</f>
         <v>2</v>
       </c>
       <c r="K114" s="4" t="s">
@@ -7789,8 +7802,8 @@
         <v>22000</v>
       </c>
       <c r="P114" s="1">
-        <f>VLOOKUP(O114,{0,1;13000,2;25000,3;60000,4},2)</f>
-        <v>2</v>
+        <f>VLOOKUP(O114,{0,1;10000,2;20000,3;60000,4},2)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -7823,7 +7836,7 @@
         <v>52</v>
       </c>
       <c r="J115" s="1">
-        <f>VLOOKUP(I115,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I115,{0,1;90,2;125,3;200,4},2)</f>
         <v>1</v>
       </c>
       <c r="K115" s="4" t="s">
@@ -7842,7 +7855,7 @@
         <v>19000</v>
       </c>
       <c r="P115" s="1">
-        <f>VLOOKUP(O115,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O115,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>2</v>
       </c>
     </row>
@@ -7876,7 +7889,7 @@
         <v>99</v>
       </c>
       <c r="J116" s="1">
-        <f>VLOOKUP(I116,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I116,{0,1;90,2;125,3;200,4},2)</f>
         <v>2</v>
       </c>
       <c r="K116" s="4" t="s">
@@ -7895,8 +7908,8 @@
         <v>22000</v>
       </c>
       <c r="P116" s="1">
-        <f>VLOOKUP(O116,{0,1;13000,2;25000,3;60000,4},2)</f>
-        <v>2</v>
+        <f>VLOOKUP(O116,{0,1;10000,2;20000,3;60000,4},2)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -7929,7 +7942,7 @@
         <v>133</v>
       </c>
       <c r="J117" s="1">
-        <f>VLOOKUP(I117,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I117,{0,1;90,2;125,3;200,4},2)</f>
         <v>3</v>
       </c>
       <c r="K117" s="4" t="s">
@@ -7948,8 +7961,8 @@
         <v>22000</v>
       </c>
       <c r="P117" s="1">
-        <f>VLOOKUP(O117,{0,1;13000,2;25000,3;60000,4},2)</f>
-        <v>2</v>
+        <f>VLOOKUP(O117,{0,1;10000,2;20000,3;60000,4},2)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -7982,7 +7995,7 @@
         <v>154</v>
       </c>
       <c r="J118" s="1">
-        <f>VLOOKUP(I118,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I118,{0,1;90,2;125,3;200,4},2)</f>
         <v>3</v>
       </c>
       <c r="K118" s="4" t="s">
@@ -8001,7 +8014,7 @@
         <v>52000</v>
       </c>
       <c r="P118" s="1">
-        <f>VLOOKUP(O118,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O118,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>3</v>
       </c>
     </row>
@@ -8035,7 +8048,7 @@
         <v>132</v>
       </c>
       <c r="J119" s="1">
-        <f>VLOOKUP(I119,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I119,{0,1;90,2;125,3;200,4},2)</f>
         <v>3</v>
       </c>
       <c r="K119" s="4" t="s">
@@ -8054,8 +8067,8 @@
         <v>20000</v>
       </c>
       <c r="P119" s="1">
-        <f>VLOOKUP(O119,{0,1;13000,2;25000,3;60000,4},2)</f>
-        <v>2</v>
+        <f>VLOOKUP(O119,{0,1;10000,2;20000,3;60000,4},2)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="120" spans="1:16">
@@ -8088,7 +8101,7 @@
         <v>155</v>
       </c>
       <c r="J120" s="1">
-        <f>VLOOKUP(I120,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I120,{0,1;90,2;125,3;200,4},2)</f>
         <v>3</v>
       </c>
       <c r="K120" s="4" t="s">
@@ -8107,8 +8120,8 @@
         <v>20000</v>
       </c>
       <c r="P120" s="1">
-        <f>VLOOKUP(O120,{0,1;13000,2;25000,3;60000,4},2)</f>
-        <v>2</v>
+        <f>VLOOKUP(O120,{0,1;10000,2;20000,3;60000,4},2)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="121" spans="1:16">
@@ -8141,7 +8154,7 @@
         <v>88</v>
       </c>
       <c r="J121" s="1">
-        <f>VLOOKUP(I121,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I121,{0,1;90,2;125,3;200,4},2)</f>
         <v>1</v>
       </c>
       <c r="K121" s="4" t="s">
@@ -8160,8 +8173,8 @@
         <v>23000</v>
       </c>
       <c r="P121" s="1">
-        <f>VLOOKUP(O121,{0,1;13000,2;25000,3;60000,4},2)</f>
-        <v>2</v>
+        <f>VLOOKUP(O121,{0,1;10000,2;20000,3;60000,4},2)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="122" spans="1:16">
@@ -8235,18 +8248,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="3" width="9" style="9"/>
-    <col min="4" max="4" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9" style="9"/>
+    <col min="3" max="3" width="6" style="9" customWidth="1"/>
+    <col min="4" max="4" width="10.75" customWidth="1"/>
+    <col min="5" max="5" width="3.625" style="9" customWidth="1"/>
     <col min="6" max="6" width="9" style="9"/>
-    <col min="7" max="8" width="9" style="11"/>
-    <col min="9" max="9" width="9" style="9"/>
+    <col min="7" max="7" width="6.875" style="11" customWidth="1"/>
+    <col min="8" max="8" width="9" style="11"/>
+    <col min="9" max="9" width="6.875" style="9" customWidth="1"/>
     <col min="10" max="10" width="9" style="11"/>
     <col min="11" max="11" width="9" style="9"/>
     <col min="12" max="12" width="9" style="11"/>
@@ -8272,37 +8287,37 @@
         <v>10</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="J1" s="12" t="s">
         <v>418</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>417</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>417</v>
-      </c>
-      <c r="I1" s="6" t="s">
+      <c r="K1" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="L1" s="10" t="s">
         <v>420</v>
       </c>
-      <c r="J1" s="12" t="s">
-        <v>419</v>
-      </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="N1" s="10" t="s">
         <v>422</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>421</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>423</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>11</v>
       </c>
       <c r="P1" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="30.75" customHeight="1">
@@ -8335,7 +8350,7 @@
         <v>105</v>
       </c>
       <c r="J2" s="13">
-        <f>VLOOKUP(I2,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I2,{0,1;90,2;125,3;200,4},2)</f>
         <v>2</v>
       </c>
       <c r="K2" s="4" t="s">
@@ -8354,7 +8369,7 @@
         <v>41000</v>
       </c>
       <c r="P2">
-        <f>VLOOKUP(O2,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O2,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>3</v>
       </c>
     </row>
@@ -8388,7 +8403,7 @@
         <v>300</v>
       </c>
       <c r="J3" s="13">
-        <f>VLOOKUP(I3,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I3,{0,1;90,2;125,3;200,4},2)</f>
         <v>4</v>
       </c>
       <c r="K3" s="4" t="s">
@@ -8398,7 +8413,7 @@
         <v>1</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>13</v>
+        <v>426</v>
       </c>
       <c r="N3" s="10">
         <v>1</v>
@@ -8407,8 +8422,8 @@
         <v>22000</v>
       </c>
       <c r="P3">
-        <f>VLOOKUP(O3,{0,1;13000,2;25000,3;60000,4},2)</f>
-        <v>2</v>
+        <f>VLOOKUP(O3,{0,1;10000,2;20000,3;60000,4},2)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -8441,7 +8456,7 @@
         <v>117</v>
       </c>
       <c r="J4" s="13">
-        <f>VLOOKUP(I4,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I4,{0,1;90,2;125,3;200,4},2)</f>
         <v>2</v>
       </c>
       <c r="K4" s="4" t="s">
@@ -8460,8 +8475,8 @@
         <v>21000</v>
       </c>
       <c r="P4">
-        <f>VLOOKUP(O4,{0,1;13000,2;25000,3;60000,4},2)</f>
-        <v>2</v>
+        <f>VLOOKUP(O4,{0,1;10000,2;20000,3;60000,4},2)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="27">
@@ -8494,7 +8509,7 @@
         <v>166</v>
       </c>
       <c r="J5" s="13">
-        <f>VLOOKUP(I5,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I5,{0,1;90,2;125,3;200,4},2)</f>
         <v>3</v>
       </c>
       <c r="K5" s="4" t="s">
@@ -8513,7 +8528,7 @@
         <v>60000</v>
       </c>
       <c r="P5">
-        <f>VLOOKUP(O5,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O5,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>4</v>
       </c>
     </row>
@@ -8547,7 +8562,7 @@
         <v>289</v>
       </c>
       <c r="J6" s="13">
-        <f>VLOOKUP(I6,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I6,{0,1;90,2;125,3;200,4},2)</f>
         <v>4</v>
       </c>
       <c r="K6" s="4" t="s">
@@ -8566,8 +8581,8 @@
         <v>22000</v>
       </c>
       <c r="P6">
-        <f>VLOOKUP(O6,{0,1;13000,2;25000,3;60000,4},2)</f>
-        <v>2</v>
+        <f>VLOOKUP(O6,{0,1;10000,2;20000,3;60000,4},2)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -8600,7 +8615,7 @@
         <v>576</v>
       </c>
       <c r="J7" s="13">
-        <f>VLOOKUP(I7,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I7,{0,1;90,2;125,3;200,4},2)</f>
         <v>4</v>
       </c>
       <c r="K7" s="4" t="s">
@@ -8619,7 +8634,7 @@
         <v>65000</v>
       </c>
       <c r="P7">
-        <f>VLOOKUP(O7,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O7,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>4</v>
       </c>
     </row>
@@ -8653,7 +8668,7 @@
         <v>300</v>
       </c>
       <c r="J8" s="13">
-        <f>VLOOKUP(I8,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I8,{0,1;90,2;125,3;200,4},2)</f>
         <v>4</v>
       </c>
       <c r="K8" s="4" t="s">
@@ -8672,8 +8687,8 @@
         <v>20000</v>
       </c>
       <c r="P8">
-        <f>VLOOKUP(O8,{0,1;13000,2;25000,3;60000,4},2)</f>
-        <v>2</v>
+        <f>VLOOKUP(O8,{0,1;10000,2;20000,3;60000,4},2)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -8706,7 +8721,7 @@
         <v>315</v>
       </c>
       <c r="J9" s="13">
-        <f>VLOOKUP(I9,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I9,{0,1;90,2;125,3;200,4},2)</f>
         <v>4</v>
       </c>
       <c r="K9" s="4" t="s">
@@ -8725,8 +8740,8 @@
         <v>11000</v>
       </c>
       <c r="P9">
-        <f>VLOOKUP(O9,{0,1;13000,2;25000,3;60000,4},2)</f>
-        <v>1</v>
+        <f>VLOOKUP(O9,{0,1;10000,2;20000,3;60000,4},2)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="27">
@@ -8759,7 +8774,7 @@
         <v>89</v>
       </c>
       <c r="J10" s="13">
-        <f>VLOOKUP(I10,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I10,{0,1;90,2;125,3;200,4},2)</f>
         <v>1</v>
       </c>
       <c r="K10" s="4" t="s">
@@ -8778,8 +8793,8 @@
         <v>21000</v>
       </c>
       <c r="P10">
-        <f>VLOOKUP(O10,{0,1;13000,2;25000,3;60000,4},2)</f>
-        <v>2</v>
+        <f>VLOOKUP(O10,{0,1;10000,2;20000,3;60000,4},2)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -8812,8 +8827,8 @@
         <v>200</v>
       </c>
       <c r="J11" s="13">
-        <f>VLOOKUP(I11,{0,1;90,2;125,3;250,4},2)</f>
-        <v>3</v>
+        <f>VLOOKUP(I11,{0,1;90,2;125,3;200,4},2)</f>
+        <v>4</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>18</v>
@@ -8831,7 +8846,7 @@
         <v>18000</v>
       </c>
       <c r="P11">
-        <f>VLOOKUP(O11,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O11,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>2</v>
       </c>
     </row>
@@ -8865,7 +8880,7 @@
         <v>70</v>
       </c>
       <c r="J12" s="13">
-        <f>VLOOKUP(I12,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I12,{0,1;90,2;125,3;200,4},2)</f>
         <v>1</v>
       </c>
       <c r="K12" s="4" t="s">
@@ -8878,14 +8893,14 @@
         <v>55</v>
       </c>
       <c r="N12" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O12" s="4">
         <v>23000</v>
       </c>
       <c r="P12">
-        <f>VLOOKUP(O12,{0,1;13000,2;25000,3;60000,4},2)</f>
-        <v>2</v>
+        <f>VLOOKUP(O12,{0,1;10000,2;20000,3;60000,4},2)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -8918,7 +8933,7 @@
         <v>31</v>
       </c>
       <c r="J13" s="13">
-        <f>VLOOKUP(I13,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I13,{0,1;90,2;125,3;200,4},2)</f>
         <v>1</v>
       </c>
       <c r="K13" s="4" t="s">
@@ -8928,7 +8943,7 @@
         <v>2</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>52</v>
+        <v>427</v>
       </c>
       <c r="N13" s="10">
         <v>3</v>
@@ -8937,7 +8952,7 @@
         <v>48000</v>
       </c>
       <c r="P13">
-        <f>VLOOKUP(O13,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O13,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>3</v>
       </c>
     </row>
@@ -8971,7 +8986,7 @@
         <v>103</v>
       </c>
       <c r="J14" s="13">
-        <f>VLOOKUP(I14,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I14,{0,1;90,2;125,3;200,4},2)</f>
         <v>2</v>
       </c>
       <c r="K14" s="4" t="s">
@@ -8990,7 +9005,7 @@
         <v>29000</v>
       </c>
       <c r="P14">
-        <f>VLOOKUP(O14,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O14,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>3</v>
       </c>
     </row>
@@ -9024,7 +9039,7 @@
         <v>66</v>
       </c>
       <c r="J15" s="13">
-        <f>VLOOKUP(I15,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I15,{0,1;90,2;125,3;200,4},2)</f>
         <v>1</v>
       </c>
       <c r="K15" s="4" t="s">
@@ -9043,7 +9058,7 @@
         <v>42000</v>
       </c>
       <c r="P15">
-        <f>VLOOKUP(O15,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O15,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>3</v>
       </c>
     </row>
@@ -9077,7 +9092,7 @@
         <v>133</v>
       </c>
       <c r="J16" s="13">
-        <f>VLOOKUP(I16,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I16,{0,1;90,2;125,3;200,4},2)</f>
         <v>3</v>
       </c>
       <c r="K16" s="4" t="s">
@@ -9096,8 +9111,8 @@
         <v>21000</v>
       </c>
       <c r="P16">
-        <f>VLOOKUP(O16,{0,1;13000,2;25000,3;60000,4},2)</f>
-        <v>2</v>
+        <f>VLOOKUP(O16,{0,1;10000,2;20000,3;60000,4},2)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -9130,7 +9145,7 @@
         <v>31</v>
       </c>
       <c r="J17" s="13">
-        <f>VLOOKUP(I17,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I17,{0,1;90,2;125,3;200,4},2)</f>
         <v>1</v>
       </c>
       <c r="K17" s="4" t="s">
@@ -9149,7 +9164,7 @@
         <v>5100</v>
       </c>
       <c r="P17">
-        <f>VLOOKUP(O17,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O17,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>1</v>
       </c>
     </row>
@@ -9183,7 +9198,7 @@
         <v>108</v>
       </c>
       <c r="J18" s="13">
-        <f>VLOOKUP(I18,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I18,{0,1;90,2;125,3;200,4},2)</f>
         <v>2</v>
       </c>
       <c r="K18" s="4" t="s">
@@ -9202,7 +9217,7 @@
         <v>18000</v>
       </c>
       <c r="P18">
-        <f>VLOOKUP(O18,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O18,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>2</v>
       </c>
     </row>
@@ -9236,7 +9251,7 @@
         <v>155</v>
       </c>
       <c r="J19" s="13">
-        <f>VLOOKUP(I19,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I19,{0,1;90,2;125,3;200,4},2)</f>
         <v>3</v>
       </c>
       <c r="K19" s="4" t="s">
@@ -9255,7 +9270,7 @@
         <v>29000</v>
       </c>
       <c r="P19">
-        <f>VLOOKUP(O19,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O19,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>3</v>
       </c>
     </row>
@@ -9289,7 +9304,7 @@
         <v>77</v>
       </c>
       <c r="J20" s="13">
-        <f>VLOOKUP(I20,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I20,{0,1;90,2;125,3;200,4},2)</f>
         <v>1</v>
       </c>
       <c r="K20" s="4" t="s">
@@ -9308,7 +9323,7 @@
         <v>30000</v>
       </c>
       <c r="P20">
-        <f>VLOOKUP(O20,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O20,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>3</v>
       </c>
     </row>
@@ -9342,7 +9357,7 @@
         <v>55</v>
       </c>
       <c r="J21" s="13">
-        <f>VLOOKUP(I21,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I21,{0,1;90,2;125,3;200,4},2)</f>
         <v>1</v>
       </c>
       <c r="K21" s="4" t="s">
@@ -9361,7 +9376,7 @@
         <v>36000</v>
       </c>
       <c r="P21">
-        <f>VLOOKUP(O21,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O21,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>3</v>
       </c>
     </row>
@@ -9395,7 +9410,7 @@
         <v>54</v>
       </c>
       <c r="J22" s="13">
-        <f>VLOOKUP(I22,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I22,{0,1;90,2;125,3;200,4},2)</f>
         <v>1</v>
       </c>
       <c r="K22" s="4" t="s">
@@ -9414,8 +9429,8 @@
         <v>21000</v>
       </c>
       <c r="P22">
-        <f>VLOOKUP(O22,{0,1;13000,2;25000,3;60000,4},2)</f>
-        <v>2</v>
+        <f>VLOOKUP(O22,{0,1;10000,2;20000,3;60000,4},2)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -9448,7 +9463,7 @@
         <v>123</v>
       </c>
       <c r="J23" s="13">
-        <f>VLOOKUP(I23,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I23,{0,1;90,2;125,3;200,4},2)</f>
         <v>2</v>
       </c>
       <c r="K23" s="4" t="s">
@@ -9467,7 +9482,7 @@
         <v>32000</v>
       </c>
       <c r="P23">
-        <f>VLOOKUP(O23,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O23,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>3</v>
       </c>
     </row>
@@ -9501,7 +9516,7 @@
         <v>85</v>
       </c>
       <c r="J24" s="13">
-        <f>VLOOKUP(I24,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I24,{0,1;90,2;125,3;200,4},2)</f>
         <v>1</v>
       </c>
       <c r="K24" s="4" t="s">
@@ -9520,7 +9535,7 @@
         <v>27000</v>
       </c>
       <c r="P24">
-        <f>VLOOKUP(O24,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O24,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>3</v>
       </c>
     </row>
@@ -9554,7 +9569,7 @@
         <v>31</v>
       </c>
       <c r="J25" s="13">
-        <f>VLOOKUP(I25,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I25,{0,1;90,2;125,3;200,4},2)</f>
         <v>1</v>
       </c>
       <c r="K25" s="4" t="s">
@@ -9567,13 +9582,13 @@
         <v>55</v>
       </c>
       <c r="N25" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O25" s="4">
         <v>40000</v>
       </c>
       <c r="P25">
-        <f>VLOOKUP(O25,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O25,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>3</v>
       </c>
     </row>
@@ -9607,7 +9622,7 @@
         <v>80</v>
       </c>
       <c r="J26" s="13">
-        <f>VLOOKUP(I26,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I26,{0,1;90,2;125,3;200,4},2)</f>
         <v>1</v>
       </c>
       <c r="K26" s="4" t="s">
@@ -9620,14 +9635,14 @@
         <v>55</v>
       </c>
       <c r="N26" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O26" s="4">
         <v>21000</v>
       </c>
       <c r="P26">
-        <f>VLOOKUP(O26,{0,1;13000,2;25000,3;60000,4},2)</f>
-        <v>2</v>
+        <f>VLOOKUP(O26,{0,1;10000,2;20000,3;60000,4},2)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -9660,7 +9675,7 @@
         <v>50</v>
       </c>
       <c r="J27" s="13">
-        <f>VLOOKUP(I27,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I27,{0,1;90,2;125,3;200,4},2)</f>
         <v>1</v>
       </c>
       <c r="K27" s="4" t="s">
@@ -9679,7 +9694,7 @@
         <v>34000</v>
       </c>
       <c r="P27">
-        <f>VLOOKUP(O27,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O27,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>3</v>
       </c>
     </row>
@@ -9713,7 +9728,7 @@
         <v>89</v>
       </c>
       <c r="J28" s="13">
-        <f>VLOOKUP(I28,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I28,{0,1;90,2;125,3;200,4},2)</f>
         <v>1</v>
       </c>
       <c r="K28" s="4" t="s">
@@ -9723,16 +9738,16 @@
         <v>2</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="N28" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O28" s="4">
         <v>36000</v>
       </c>
       <c r="P28">
-        <f>VLOOKUP(O28,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O28,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>3</v>
       </c>
     </row>
@@ -9766,7 +9781,7 @@
         <v>103</v>
       </c>
       <c r="J29" s="13">
-        <f>VLOOKUP(I29,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I29,{0,1;90,2;125,3;200,4},2)</f>
         <v>2</v>
       </c>
       <c r="K29" s="4" t="s">
@@ -9779,13 +9794,13 @@
         <v>55</v>
       </c>
       <c r="N29" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O29" s="4">
         <v>18000</v>
       </c>
       <c r="P29">
-        <f>VLOOKUP(O29,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O29,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>2</v>
       </c>
     </row>
@@ -9819,7 +9834,7 @@
         <v>110</v>
       </c>
       <c r="J30" s="13">
-        <f>VLOOKUP(I30,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I30,{0,1;90,2;125,3;200,4},2)</f>
         <v>2</v>
       </c>
       <c r="K30" s="4" t="s">
@@ -9838,7 +9853,7 @@
         <v>19000</v>
       </c>
       <c r="P30">
-        <f>VLOOKUP(O30,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O30,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>2</v>
       </c>
     </row>
@@ -9872,7 +9887,7 @@
         <v>84</v>
       </c>
       <c r="J31" s="13">
-        <f>VLOOKUP(I31,{0,1;90,2;125,3;250,4},2)</f>
+        <f>VLOOKUP(I31,{0,1;90,2;125,3;200,4},2)</f>
         <v>1</v>
       </c>
       <c r="K31" s="4" t="s">
@@ -9891,7 +9906,7 @@
         <v>25000</v>
       </c>
       <c r="P31">
-        <f>VLOOKUP(O31,{0,1;13000,2;25000,3;60000,4},2)</f>
+        <f>VLOOKUP(O31,{0,1;10000,2;20000,3;60000,4},2)</f>
         <v>3</v>
       </c>
     </row>
